--- a/testData/passwd_envelope_test_data.xlsx
+++ b/testData/passwd_envelope_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_passwd_envelope" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="mode_passwd_envelope" sheetId="9" r:id="rId4"/>
     <sheet name="check_passwd_envelope" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -692,19 +692,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -772,22 +772,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.75" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -833,11 +833,11 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -876,13 +876,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -932,19 +932,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1">
@@ -1019,7 +1019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
